--- a/test_y_mensual.xlsx
+++ b/test_y_mensual.xlsx
@@ -453,18 +453,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45747</v>
+        <v>45777</v>
       </c>
       <c r="B2" t="n">
-        <v>7.014814814814815</v>
+        <v>2.116666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45777</v>
+        <v>45808</v>
       </c>
       <c r="B3" t="n">
-        <v>14.03333333333333</v>
+        <v>9.9</v>
       </c>
     </row>
   </sheetData>
